--- a/outputs/ML_Results/carown_LR/Potsdam.xlsx
+++ b/outputs/ML_Results/carown_LR/Potsdam.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ5" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ10" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ9" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ19" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ27" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ3" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ13" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ32" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ8" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ44" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ27" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,9 +466,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.17438007572689</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>2.400250803437797</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999995685283882</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -477,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7471147352776041</v>
+        <v>-0.3770669545510612</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113350797023079</v>
+        <v>0.3892397562888477</v>
       </c>
     </row>
     <row r="4">
@@ -490,240 +492,245 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.239162330232711</v>
+        <v>-1.229252134835568</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007285754670310915</v>
+        <v>0.0003321232917044651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.067629561913977</v>
+        <v>-0.7766910984635638</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05255428415105869</v>
+        <v>0.03577442233139832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5520400491543316</v>
+        <v>-1.223238857892331</v>
       </c>
       <c r="C6" t="n">
-        <v>0.151890249491516</v>
+        <v>0.01748425035882163</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.009316088146178165</v>
+        <v>-0.06961599793471537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.993684581880781</v>
+        <v>0.7131087876297508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1148785897667032</v>
+        <v>0.0004080619181565958</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5915392569851039</v>
+        <v>3.639446583322034e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003520251614547718</v>
+        <v>0.003081389668267875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003943769477516457</v>
+        <v>0.7381102724508117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008374300059074028</v>
+        <v>-0.2535182088671363</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3655711994358738</v>
+        <v>0.2776757079808906</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.160185983877609</v>
+        <v>1.104880995559856</v>
       </c>
       <c r="C11" t="n">
-        <v>0.505057974006948</v>
+        <v>0.004978491591972608</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.37895894088155</v>
+        <v>0.5230503135421682</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002652299294508438</v>
+        <v>0.2775622241795297</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6373322897799938</v>
+        <v>-6.093165328783408e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1759934936532019</v>
+        <v>0.9999999608081545</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.433835966727887e-05</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>-2.230133648820436e-07</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9999998422402</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.560924928738664e-08</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>-0.4856702546214117</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9999994059540186</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.4467102378958214</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.1945151879853091</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999997313785521</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09728491235171299</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>-1.717836218822887</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9999998975481097</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.645269713067378</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>-0.08350124582110713</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9999995061923287</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.08263112643204948</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>-0.004610811192879579</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9999998823424054</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.074088985426837e-05</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>1.256222181419162</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.999999884180804</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.328370982030678</v>
+        <v>1.72726962207548</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9999997883593361</v>
+        <v>0.9999999495793755</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.439964792891165</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1.629163442036237</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>1.727739242211699</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9999998831127312</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -736,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.465884938058771</v>
+        <v>2.217248730702862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.999998430126838</v>
+        <v>0.9999994643448844</v>
       </c>
     </row>
     <row r="3">
@@ -781,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1756042042377755</v>
+        <v>0.005331376492456201</v>
       </c>
       <c r="C3" t="n">
-        <v>0.695935178710037</v>
+        <v>0.9906712621687136</v>
       </c>
     </row>
     <row r="4">
@@ -794,251 +801,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.493481311018313</v>
+        <v>-1.422742343441172</v>
       </c>
       <c r="C4" t="n">
-        <v>2.901297294421361e-05</v>
+        <v>5.656950247721447e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9396794826258146</v>
+        <v>-0.9263562021050608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08311469769162069</v>
+        <v>0.01161526445950166</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7443130636710824</v>
+        <v>-1.162118421122699</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04474939129098526</v>
+        <v>0.01947441103001853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8701976100173322</v>
+        <v>-0.1547436270606392</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3830245853808645</v>
+        <v>0.4253262716624957</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.07594842090351783</v>
+        <v>0.0003136338850908165</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6989557293426658</v>
+        <v>0.001668577371673659</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003668903116679631</v>
+        <v>0.007188574151385944</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002111350437649912</v>
+        <v>0.4406030552976711</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005078713284295675</v>
+        <v>-0.0357727242382451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5874682018190462</v>
+        <v>0.8800489999009565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.07940849671670368</v>
+        <v>1.396346471668516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7383006294376111</v>
+        <v>0.0003675379134030119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.05603251504301</v>
+        <v>0.7250030519839684</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006046935085054995</v>
+        <v>0.1334345169364472</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5970280324282023</v>
+        <v>-0.0002198336129603929</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2264115977648115</v>
+        <v>0.9999998788643072</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001901759646110502</v>
+        <v>1.190329664640781e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999996210701586</v>
+        <v>0.9999999640326482</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.252102335079492e-08</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>-0.5340647210327341</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9999996022050777</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.6120645830530054</v>
+        <v>0.1858247504907485</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9999987766153938</v>
+        <v>0.9999997761311457</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1349369190533545</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>-2.187124378037357</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9999996555851077</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.70752956665173</v>
+        <v>-0.08315449040100878</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999994365391996</v>
+        <v>0.9999988402243651</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.09413948479087461</v>
+        <v>-0.004365073416049675</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9999954584369727</v>
+        <v>0.9999998520016774</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-8.702100242035969e-05</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>1.311998754625243</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9999999585290953</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.527079098308102</v>
+        <v>1.933252210323432</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9999997371561407</v>
+        <v>0.9999998433233815</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.307842524474918</v>
+        <v>1.756449166851636</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9999996933742973</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2.029428802400266</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9999995962559589</v>
+        <v>0.9999998578676487</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.600781779736111</v>
+        <v>1.88107974668447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999999208496807</v>
+        <v>0.9999998492275046</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2189790001346338</v>
+        <v>0.02222992085638102</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6347238212466284</v>
+        <v>0.9607427448379673</v>
       </c>
     </row>
     <row r="4">
@@ -1110,255 +1110,242 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.418207475251802</v>
+        <v>-1.553809247336105</v>
       </c>
       <c r="C4" t="n">
-        <v>5.013929173221577e-05</v>
+        <v>7.196258658783593e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9125084573426995</v>
+        <v>-0.6158437229961069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1479316192129718</v>
+        <v>0.09557985837408804</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6770386770335823</v>
+        <v>-0.9485943329119011</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06795179103466391</v>
+        <v>0.05319353507552683</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3834589678725961</v>
+        <v>-0.2004277761584564</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7453028155473331</v>
+        <v>0.2941838485085475</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2455655819457854</v>
+        <v>0.0003890288882582237</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2297005099146416</v>
+        <v>0.000107043460766275</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000433141408687417</v>
+        <v>0.004338670325594375</v>
       </c>
       <c r="C9" t="n">
-        <v>2.281822781909021e-05</v>
+        <v>0.6354365031268558</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008706710748159222</v>
+        <v>-0.03194122610807296</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3346178938191727</v>
+        <v>0.8911018653069077</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05256185393860825</v>
+        <v>1.207100316834898</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8237498514518619</v>
+        <v>0.001362261102688285</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.058066939306788</v>
+        <v>0.7516930935293381</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006089408288840982</v>
+        <v>0.1115198006397577</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4195806156437148</v>
+        <v>-0.0001715996866647206</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3792607072326654</v>
+        <v>0.9999999170644565</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002916852659078559</v>
+        <v>-6.705211132669352e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999999553756755</v>
+        <v>0.9999999890234134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.77323584420623e-07</v>
+        <v>-0.4737957916388827</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999998558066592</v>
+        <v>0.9999994454689117</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.506859235538176</v>
+        <v>0.1632191910077375</v>
       </c>
       <c r="C16" t="n">
-        <v>0.999999923492678</v>
+        <v>0.9999998805371215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2300909473396944</v>
+        <v>-2.648707802869356</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999998394295778</v>
+        <v>0.999999803989386</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.929209027773749</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9999999465947144</v>
-      </c>
+        <v>-0.07849989479932991</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.07893103623447696</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>-0.0008638591691920111</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9999999926856653</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002758654954199549</v>
+        <v>1.316369358101058</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9999999891739118</v>
+        <v>0.9999999769309786</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.035917021757363</v>
+        <v>2.094431066853645</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9999999416157872</v>
+        <v>0.9999998198216665</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.585024179100091</v>
+        <v>1.718959209415051</v>
       </c>
       <c r="C22" t="n">
-        <v>0.999999976069896</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1.350132609830348</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9999994707173933</v>
+        <v>0.9999998853414995</v>
       </c>
     </row>
   </sheetData>
@@ -1372,7 +1359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1404,10 +1391,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.149017506436496</v>
+        <v>2.110744426731166</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999992880055888</v>
+        <v>0.9999989789575924</v>
       </c>
     </row>
     <row r="3">
@@ -1417,10 +1404,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2902269287508017</v>
+        <v>-0.1585700942459294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5197716633935956</v>
+        <v>0.7332237998128669</v>
       </c>
     </row>
     <row r="4">
@@ -1430,248 +1417,225 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.210619392111444</v>
+        <v>-1.427643951839418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006712442381889162</v>
+        <v>6.571452123085938e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.177574083380164</v>
+        <v>-0.8235538364432233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03380727658269229</v>
+        <v>0.02601330373440707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7943996538853696</v>
+        <v>-0.7986569039456325</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03431646937229114</v>
+        <v>0.1150506246608848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3846047232758355</v>
+        <v>-0.07726470308998962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6848080395245034</v>
+        <v>0.7030824149619515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0701692256342777</v>
+        <v>0.0003691795606038208</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7315898588300838</v>
+        <v>0.0003039344187798092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004429479572828888</v>
+        <v>0.002567559356212239</v>
       </c>
       <c r="C9" t="n">
-        <v>1.062483266149481e-05</v>
+        <v>0.7782262999396902</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005901968602406629</v>
+        <v>-0.1620304007442748</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5151325960398482</v>
+        <v>0.4960349737798587</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.219072596353235</v>
+        <v>1.315949856329298</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3490436122979819</v>
+        <v>0.0007998797617003738</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.031752795399205</v>
+        <v>0.832330523100853</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006529858561611601</v>
+        <v>0.0826663959051922</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4509217002436532</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3421932444207108</v>
-      </c>
+        <v>-0.0001822178787586911</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.43359241149956e-05</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9999997197021427</v>
-      </c>
+        <v>-7.048245794926245e-08</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.734992121226962e-07</v>
+        <v>-0.5320913829925942</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.4169057508561338</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9999997239157253</v>
-      </c>
+        <v>0.1574825751019157</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2082962275420487</v>
+        <v>-2.231717011264467</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.816080984644459</v>
+        <v>-0.08590294304388954</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.07795995236186895</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9999989787593107</v>
-      </c>
+        <v>-6.925935443839212e-05</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.007149069691414623</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.999999888240251</v>
-      </c>
+        <v>1.286032509211694</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.197813847844829</v>
+        <v>1.92469313955635</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.70742368132567</v>
+        <v>1.711177598604887</v>
       </c>
       <c r="C22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1.632328151168416</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9999998128852687</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1684,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1716,11 +1680,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.457640450663732</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9999992095645021</v>
-      </c>
+        <v>1.064463483893938</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1729,10 +1691,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06280057870337065</v>
+        <v>-0.1459742755390688</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8900047427764632</v>
+        <v>0.7411361111464381</v>
       </c>
     </row>
     <row r="4">
@@ -1742,248 +1704,243 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.501534474897522</v>
+        <v>-1.500594188921972</v>
       </c>
       <c r="C4" t="n">
-        <v>1.391403393909224e-05</v>
+        <v>1.859480871798128e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9584510913614875</v>
+        <v>-0.9008559799162976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0713060316776524</v>
+        <v>0.01437244926091963</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7393954638476606</v>
+        <v>-0.7909580344304926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04085247451228195</v>
+        <v>0.1165460501927037</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2651203930806494</v>
+        <v>-0.1385546975349978</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7795073416083882</v>
+        <v>0.4805753309081433</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2422720468908481</v>
+        <v>0.0003599744968859048</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2094696739661177</v>
+        <v>0.0003367551670387302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003978192720782354</v>
+        <v>0.008372478674609928</v>
       </c>
       <c r="C9" t="n">
-        <v>6.412363452989757e-05</v>
+        <v>0.3552001677241891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.006142899626464447</v>
+        <v>-0.118748380389522</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5024361030857758</v>
+        <v>0.616789628441077</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1422035836884916</v>
+        <v>1.185135785093668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5422081362996374</v>
+        <v>0.001689715307636776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.243094111815708</v>
+        <v>0.4353515284712159</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0015822127985586</v>
+        <v>0.3524038346261283</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6613247509725702</v>
+        <v>-3.212605296057803e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1704076626166687</v>
+        <v>0.9999999755198323</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.090660409211574e-05</v>
+        <v>-2.05947918630481e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999999587940636</v>
+        <v>0.999999913599957</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.838263513191453e-07</v>
+        <v>-0.4646838135813711</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.4768026314402956</v>
+        <v>0.08410516704117479</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9999996751055442</v>
+        <v>0.9999998960048693</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1361789639079174</v>
+        <v>-3.354400137286713</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999994862175879</v>
+        <v>0.9999995482167361</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.40029780884984</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>-0.06861179394242201</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9999993984871859</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.07024562700339156</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>0.004796497985413157</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.999999354604188</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001826392366520672</v>
+        <v>1.214843300223432</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9999999629625064</v>
+        <v>0.9999999235727783</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.106002083896161</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>2.235358285734186</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9999998922237219</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.813280619072194</v>
+        <v>1.48046397560007</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9999996840763787</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1.414011947809326</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>0.9999998056797718</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1996,7 +1953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2028,9 +1985,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.64918094286851</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>1.408822547185684</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999991578575327</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2039,10 +1998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.03532067014604243</v>
+        <v>-0.2689434358395291</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9383880077893287</v>
+        <v>0.5555303762189635</v>
       </c>
     </row>
     <row r="4">
@@ -2052,258 +2011,227 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.569185587869851</v>
+        <v>-1.426976717825279</v>
       </c>
       <c r="C4" t="n">
-        <v>8.291979620780447e-06</v>
+        <v>6.391557333188858e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.142302962041882</v>
+        <v>-0.8154700782474137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04523438223311141</v>
+        <v>0.02891366148719095</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.01218746188638</v>
+        <v>-1.069998359266428</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007604291318861397</v>
+        <v>0.0289994124353364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.040714742455445</v>
+        <v>-0.04987181756390266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3394990474152346</v>
+        <v>0.8107771160990703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2655303175239155</v>
+        <v>0.0003661813108792679</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1776971034170786</v>
+        <v>0.0001575450883054292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004088880494909877</v>
+        <v>0.007835287137486853</v>
       </c>
       <c r="C9" t="n">
-        <v>8.967689148005717e-05</v>
+        <v>0.3847884671055658</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0112556233563601</v>
+        <v>-0.1718120340932461</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2356631633630371</v>
+        <v>0.4618622180594514</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03392445706799115</v>
+        <v>1.235321273856137</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8882381072636608</v>
+        <v>0.001181048856271813</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.256620380513817</v>
+        <v>0.5482397320746133</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001758777680452645</v>
+        <v>0.2494222769438065</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4124789414716231</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4045696587158714</v>
-      </c>
+        <v>-5.495699460067682e-05</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001133523318980716</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9999999624367748</v>
-      </c>
+        <v>-1.306440514772274e-07</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.161019539848853e-07</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9999999780995573</v>
-      </c>
+        <v>-0.4052294648449744</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.4543374487799478</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9999981648298879</v>
-      </c>
+        <v>0.135650931069492</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1565406679096245</v>
+        <v>-2.518716298408382</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999999290478286</v>
+        <v>0.9999976718179057</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.885536839452278</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.999999881997842</v>
-      </c>
+        <v>-0.07302968376365492</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.08064489715635093</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9999998187231205</v>
-      </c>
+        <v>-0.001661244509829079</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0001484210590139007</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.999999998327483</v>
-      </c>
+        <v>1.122044793628191</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.297927121973612</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9999999121525309</v>
-      </c>
+        <v>1.87169929764213</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.156627113956593</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9999999682390998</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1.665237941382739</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9999999465989019</v>
-      </c>
+        <v>1.435172654791189</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2316,7 +2244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2348,7 +2276,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.692126125522099</v>
+        <v>1.285636498701559</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2359,10 +2287,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.07230412750697587</v>
+        <v>-0.1171038914408063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8747677546776491</v>
+        <v>0.8053752173325603</v>
       </c>
     </row>
     <row r="4">
@@ -2372,238 +2300,243 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.389332689157206</v>
+        <v>-1.310460201332544</v>
       </c>
       <c r="C4" t="n">
-        <v>8.363775483470067e-05</v>
+        <v>0.0003108805465157733</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.035456991956315</v>
+        <v>-0.5405778423365656</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06341969068531868</v>
+        <v>0.1563772237647413</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8142350017252136</v>
+        <v>-1.022664284111035</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02877865462071612</v>
+        <v>0.0390742847849455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7336871033988318</v>
+        <v>0.0170651135089226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4686251550559245</v>
+        <v>0.9368448910872758</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0912118459185797</v>
+        <v>0.0003878075357003735</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6567794547204112</v>
+        <v>0.0001859995426491884</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003383992350582559</v>
+        <v>0.01387486479270425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000716944005650068</v>
+        <v>0.1305303618372737</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005532261859096264</v>
+        <v>-0.1546387269632785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5412595112825247</v>
+        <v>0.5091378416619488</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1616795110487198</v>
+        <v>0.9606710266627149</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4891008462505722</v>
+        <v>0.01195116638060791</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.249677017891496</v>
+        <v>0.1941876438010008</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001285663137426166</v>
+        <v>0.6867739242600097</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6773590613584077</v>
+        <v>-0.0001912325114348083</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1482935017179717</v>
+        <v>0.9999996766031075</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001936562577966628</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>1.482727516959001e-07</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.999999855813872</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.218272629921386e-08</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>-0.4856252823332627</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9999991752168946</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.5400342533548351</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.1486426255041107</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999995094921843</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2098101637445364</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>-2.699342628927071</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9999988947754866</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.38301044758047</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>-0.07539434158198698</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9999990855501329</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.08948172263959782</v>
+        <v>-0.002094887074564713</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.006673167035906669</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>1.123765838921571</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9999998996636457</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.26916108461951</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>1.928079648635797</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9999997594816578</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.62513741083659</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1.779137715120327</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>1.406402574614333</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9999998427852258</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2616,7 +2549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2648,9 +2581,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.925750719231119</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>1.274763118860167</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999996019206888</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2659,10 +2594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1862040293031556</v>
+        <v>-0.2046431502894395</v>
       </c>
       <c r="C3" t="n">
-        <v>0.684607075962914</v>
+        <v>0.6459579941897533</v>
       </c>
     </row>
     <row r="4">
@@ -2672,242 +2607,241 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.348099913130109</v>
+        <v>-1.434301854303577</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001212743361873902</v>
+        <v>3.402245926147167e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.109093469191165</v>
+        <v>-0.5451019857722171</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04869210047109603</v>
+        <v>0.1424257904820201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6060806237458948</v>
+        <v>-1.116029224336967</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1032017085940172</v>
+        <v>0.0323534540925111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5558189316134841</v>
+        <v>-0.1410490992592197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5561103558193279</v>
+        <v>0.4662310604919506</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.08174998609175281</v>
+        <v>0.0003813936240578558</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6850178578685251</v>
+        <v>0.0001365118064753983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003720775180650879</v>
+        <v>0.007999102053149802</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002120013506035465</v>
+        <v>0.3884767905438967</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.003994122689807526</v>
+        <v>-0.06174702147950447</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6626024333783507</v>
+        <v>0.7962348503710628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1311092721733708</v>
+        <v>1.334983908431108</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5762573421264214</v>
+        <v>0.0009480669366223044</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.226634072477356</v>
+        <v>0.670061099067407</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001435130278768302</v>
+        <v>0.1731650009226117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6123486382499247</v>
+        <v>-0.0001256026750869994</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1999233999517356</v>
+        <v>0.9999998706019853</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002462871089250117</v>
+        <v>1.090224644641863e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999994992352262</v>
+        <v>0.9999999906740389</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.19864447301789e-08</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>-0.4651515072214585</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9999992803308744</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.5328462164002935</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.1327341399789218</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999995938480688</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1627944403711646</v>
+        <v>-2.630963536317205</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999994083902646</v>
+        <v>0.9999988658843177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.448288916479106</v>
+        <v>-0.07330363125308723</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.07702124129506363</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>0.000462499517471848</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9999999863379974</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.000844215122400559</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>1.102665205509399</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9999998415243546</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.27822592276705</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>1.887230216027714</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.988616519369131</v>
+        <v>1.383868371666556</v>
       </c>
       <c r="C22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1.673775595438193</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2920,7 +2854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2952,9 +2886,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5600888471492467</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>1.096749301308831</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999992553384814</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2963,10 +2899,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1227771290641514</v>
+        <v>-0.3693006897451371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7857553114301379</v>
+        <v>0.4165831214218516</v>
       </c>
     </row>
     <row r="4">
@@ -2976,238 +2912,235 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.582923387045131</v>
+        <v>-1.264500591590133</v>
       </c>
       <c r="C4" t="n">
-        <v>6.097171124819169e-06</v>
+        <v>0.0003392142259839228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.185697677528186</v>
+        <v>-0.5647650594411564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02795341072018226</v>
+        <v>0.1301869928291142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8061789316083952</v>
+        <v>-0.05886710756961929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02761553289275582</v>
+        <v>0.9170444268279533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5472120522646698</v>
+        <v>-0.1104385177863758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5625571806579497</v>
+        <v>0.5839125606137885</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.134939102616019</v>
+        <v>0.0004669789431308136</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4864218222703922</v>
+        <v>5.999356431826613e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003427715805229664</v>
+        <v>0.00404227971301544</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0006227808005733219</v>
+        <v>0.6652632638115199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005208211059126524</v>
+        <v>-0.01217013406117923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5702872361399624</v>
+        <v>0.9589306410535452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01612267483625707</v>
+        <v>1.244554352476451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9455125470230964</v>
+        <v>0.001197254582400046</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.346942184645916</v>
+        <v>0.7377789829369372</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006683851691790133</v>
+        <v>0.127711177404292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.794062595863389</v>
+        <v>-0.0001062573428748715</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1040089758945202</v>
+        <v>0.9999998816470368</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.566529188327114e-05</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>1.719847443891981e-08</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9999999846098361</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.566466768729108e-07</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>-0.4425009488105409</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9999990649885721</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3957327561791482</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.1517763833091386</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999991547694825</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06513971189248664</v>
+        <v>-2.772138133509718</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.097385744847899</v>
+        <v>-0.07308938922274477</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.05581049901621875</v>
+        <v>-0.0002798379392396486</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005193646102542077</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>1.079060806540285</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9999998976802369</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9771121002315412</v>
+        <v>1.911903662238835</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.928958236972758</v>
+        <v>1.332608323979598</v>
       </c>
       <c r="C22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1.142192327572337</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/ML_Results/carown_LR/Potsdam.xlsx
+++ b/outputs/ML_Results/carown_LR/Potsdam.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ13" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ32" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ8" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ44" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ4" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ0" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ27" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ9" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ16" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.400250803437797</v>
+        <v>5.962368582584541</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999995685283882</v>
+        <v>0.999998208276949</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3770669545510612</v>
+        <v>0.4667796065075639</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3892397562888477</v>
+        <v>0.378978794869651</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.229252134835568</v>
+        <v>-1.629562392047207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003321232917044651</v>
+        <v>1.31554861536827e-05</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7766910984635638</v>
+        <v>-0.6453638493382768</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03577442233139832</v>
+        <v>0.1076630477427854</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.223238857892331</v>
+        <v>-0.8735061712262318</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01748425035882163</v>
+        <v>0.09453735247038232</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.06961599793471537</v>
+        <v>-0.4405315303019342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7131087876297508</v>
+        <v>0.04527004551670619</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004080619181565958</v>
+        <v>0.0005966117697918151</v>
       </c>
       <c r="C8" t="n">
-        <v>3.639446583322034e-05</v>
+        <v>7.572485382782837e-07</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003081389668267875</v>
+        <v>0.001733957547100354</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7381102724508117</v>
+        <v>0.8644738420465202</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2535182088671363</v>
+        <v>-0.3152887273711197</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2776757079808906</v>
+        <v>0.2068504249227827</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.104880995559856</v>
+        <v>1.349716015461462</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004978491591972608</v>
+        <v>0.0006629052612735302</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5230503135421682</v>
+        <v>0.6038738713635945</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2775622241795297</v>
+        <v>0.2231973560598811</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.093165328783408e-05</v>
+        <v>-0.000392973802510035</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999999608081545</v>
+        <v>0.9999995831007413</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.230133648820436e-07</v>
+        <v>5.145213901437775e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999998422402</v>
+        <v>0.9999995392142857</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4856702546214117</v>
+        <v>-0.4668910790762051</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999994059540186</v>
+        <v>0.9999994433437949</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1945151879853091</v>
+        <v>0.3566612482579176</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9999997313785521</v>
+        <v>0.9999989977867779</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.717836218822887</v>
+        <v>-1.232573938012207</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999998975481097</v>
+        <v>0.9999997751071936</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08350124582110713</v>
+        <v>-0.094794384850684</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999995061923287</v>
+        <v>0.9999964830908247</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.004610811192879579</v>
+        <v>-0.02872009051284046</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9999998823424054</v>
+        <v>0.9999992893242841</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.256222181419162</v>
+        <v>2.362161185496858</v>
       </c>
       <c r="C20" t="n">
-        <v>0.999999884180804</v>
+        <v>0.9999997126962784</v>
       </c>
     </row>
     <row r="21">
@@ -713,23 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.72726962207548</v>
+        <v>2.611896584599156</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9999999495793755</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.727739242211699</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9999998831127312</v>
+        <v>0.9999997544477783</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.217248730702862</v>
+        <v>4.007394540169093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999994643448844</v>
+        <v>0.9999989674956098</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.005331376492456201</v>
+        <v>0.4601973493059492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9906712621687136</v>
+        <v>0.3882155065724819</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.422742343441172</v>
+        <v>-1.55253190823525</v>
       </c>
       <c r="C4" t="n">
-        <v>5.656950247721447e-05</v>
+        <v>4.737011931828994e-05</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9263562021050608</v>
+        <v>-0.593617778239238</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01161526445950166</v>
+        <v>0.1487690164886685</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.162118421122699</v>
+        <v>-0.8922630613805314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01947441103001853</v>
+        <v>0.08719344199274119</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1547436270606392</v>
+        <v>-0.3233921805068771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4253262716624957</v>
+        <v>0.1512080110325945</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003136338850908165</v>
+        <v>0.0005657590190704532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001668577371673659</v>
+        <v>4.960617989539504e-06</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007188574151385944</v>
+        <v>0.01093432607800996</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4406030552976711</v>
+        <v>0.2877781606506423</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0357727242382451</v>
+        <v>-0.1939383934733118</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8800489999009565</v>
+        <v>0.4380054468635093</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.396346471668516</v>
+        <v>1.523680136546534</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003675379134030119</v>
+        <v>0.0002808947081479576</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7250030519839684</v>
+        <v>0.488566668876028</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1334345169364472</v>
+        <v>0.3427601498909318</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0002198336129603929</v>
+        <v>-0.0004297897191558195</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999998788643072</v>
+        <v>0.9999994821702977</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.190329664640781e-07</v>
+        <v>6.122584921249264e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999999640326482</v>
+        <v>0.9999995890843354</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.5340647210327341</v>
+        <v>-0.4631671015374068</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999996022050777</v>
+        <v>0.999999373711962</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1858247504907485</v>
+        <v>0.3196241531776819</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9999997761311457</v>
+        <v>0.999999230849435</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +957,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.187124378037357</v>
+        <v>-2.854407799425229</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999996555851077</v>
+        <v>0.9999994204843869</v>
       </c>
     </row>
     <row r="18">
@@ -983,23 +970,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08315449040100878</v>
+        <v>-0.08159069107599831</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999988402243651</v>
+        <v>0.9999977156693146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.004365073416049675</v>
+        <v>-0.02238048780560521</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9999998520016774</v>
+        <v>0.9999995386405619</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +996,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.311998754625243</v>
+        <v>2.105640795846774</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9999999585290953</v>
+        <v>0.999999814030433</v>
       </c>
     </row>
     <row r="21">
@@ -1022,23 +1009,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.933252210323432</v>
+        <v>2.906410476724449</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9999998433233815</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.756449166851636</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9999998578676487</v>
+        <v>0.9999996823179098</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,11 +1058,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.88107974668447</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9999998492275046</v>
-      </c>
+        <v>5.13107822929072</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1097,10 +1069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02222992085638102</v>
+        <v>0.224360077240519</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9607427448379673</v>
+        <v>0.6735194601208632</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.553809247336105</v>
+        <v>-1.377180236463728</v>
       </c>
       <c r="C4" t="n">
-        <v>7.196258658783593e-06</v>
+        <v>0.0003361465069859564</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6158437229961069</v>
+        <v>-0.6450226691540155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09557985837408804</v>
+        <v>0.1179161347622457</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9485943329119011</v>
+        <v>-0.5181759744844633</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05319353507552683</v>
+        <v>0.3642601246947231</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2004277761584564</v>
+        <v>-0.2715170449403272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2941838485085475</v>
+        <v>0.2433538826461799</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003890288882582237</v>
+        <v>0.0005732666473239674</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000107043460766275</v>
+        <v>1.316221664818154e-06</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.004338670325594375</v>
+        <v>0.006026169128906304</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6354365031268558</v>
+        <v>0.5494671773960518</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1160,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.03194122610807296</v>
+        <v>-0.2366634932607301</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8911018653069077</v>
+        <v>0.3422855781288353</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1173,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.207100316834898</v>
+        <v>1.415616090197802</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001362261102688285</v>
+        <v>0.0003958723609491478</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1186,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7516930935293381</v>
+        <v>0.4767383385605677</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1115198006397577</v>
+        <v>0.3464037385324695</v>
       </c>
     </row>
     <row r="13">
@@ -1227,11 +1199,9 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001715996866647206</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9999999170644565</v>
-      </c>
+        <v>-0.0003903075838909232</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1240,10 +1210,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.705211132669352e-08</v>
+        <v>6.583716769040925e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999999890234134</v>
+        <v>0.9999977058538981</v>
       </c>
     </row>
     <row r="15">
@@ -1253,11 +1223,9 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4737957916388827</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9999994454689117</v>
-      </c>
+        <v>-0.4142861462077964</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1266,10 +1234,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1632191910077375</v>
+        <v>0.343901300319331</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9999998805371215</v>
+        <v>0.9999989675344902</v>
       </c>
     </row>
     <row r="17">
@@ -1279,11 +1247,9 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.648707802869356</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.999999803989386</v>
-      </c>
+        <v>-1.934753743905975</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1292,22 +1258,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07849989479932991</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>-0.09390785723728627</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9999908979940261</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0008638591691920111</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9999999926856653</v>
-      </c>
+        <v>-0.02986480549707787</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1316,11 +1282,9 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.316369358101058</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9999999769309786</v>
-      </c>
+        <v>2.258111683196037</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1329,24 +1293,9 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.094431066853645</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9999998198216665</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.718959209415051</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9999998853414995</v>
-      </c>
+        <v>2.748765946447783</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1359,7 +1308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1391,11 +1340,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.110744426731166</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9999989789575924</v>
-      </c>
+        <v>4.549464464738196</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1404,10 +1351,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1585700942459294</v>
+        <v>0.2702199766525872</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7332237998128669</v>
+        <v>0.6127964505675799</v>
       </c>
     </row>
     <row r="4">
@@ -1417,10 +1364,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.427643951839418</v>
+        <v>-1.355007757947036</v>
       </c>
       <c r="C4" t="n">
-        <v>6.571452123085938e-05</v>
+        <v>0.0003470085729147821</v>
       </c>
     </row>
     <row r="5">
@@ -1430,10 +1377,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8235538364432233</v>
+        <v>-0.3756231739359552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02601330373440707</v>
+        <v>0.3712972032579511</v>
       </c>
     </row>
     <row r="6">
@@ -1443,10 +1390,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7986569039456325</v>
+        <v>-0.9386143684628151</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1150506246608848</v>
+        <v>0.07441293194467283</v>
       </c>
     </row>
     <row r="7">
@@ -1456,10 +1403,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.07726470308998962</v>
+        <v>-0.2475174989723732</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7030824149619515</v>
+        <v>0.2808926178574938</v>
       </c>
     </row>
     <row r="8">
@@ -1469,10 +1416,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003691795606038208</v>
+        <v>0.00059242657973352</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003039344187798092</v>
+        <v>1.108058517200695e-06</v>
       </c>
     </row>
     <row r="9">
@@ -1482,10 +1429,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002567559356212239</v>
+        <v>0.008903743072163324</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7782262999396902</v>
+        <v>0.3859217944604426</v>
       </c>
     </row>
     <row r="10">
@@ -1495,10 +1442,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1620304007442748</v>
+        <v>-0.2256620142651793</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4960349737798587</v>
+        <v>0.368721250300448</v>
       </c>
     </row>
     <row r="11">
@@ -1508,10 +1455,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.315949856329298</v>
+        <v>1.466934133033827</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0007998797617003738</v>
+        <v>0.0002366136888571546</v>
       </c>
     </row>
     <row r="12">
@@ -1521,10 +1468,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.832330523100853</v>
+        <v>0.4612162175656116</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0826663959051922</v>
+        <v>0.3553548001678108</v>
       </c>
     </row>
     <row r="13">
@@ -1534,7 +1481,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001822178787586911</v>
+        <v>-0.0004258484883367558</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -1545,9 +1492,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.048245794926245e-08</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>7.454591363234717e-07</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9999988320216635</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1556,7 +1505,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.5320913829925942</v>
+        <v>-0.4151947147846569</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -1567,7 +1516,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1574825751019157</v>
+        <v>0.3408905421569363</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
@@ -1578,7 +1527,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.231717011264467</v>
+        <v>-2.129656802365763</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
@@ -1589,18 +1538,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08590294304388954</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>-0.08631124773640572</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9999935001910516</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6.925935443839212e-05</v>
+        <v>-0.02929466470676686</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
@@ -1611,9 +1562,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.286032509211694</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>2.108065186557928</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9999997004496247</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1622,20 +1575,9 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.92469313955635</v>
+        <v>2.670673875102286</v>
       </c>
       <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.711177598604887</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1648,7 +1590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1680,9 +1622,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.064463483893938</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>4.298501915064955</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999982974826395</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1691,10 +1635,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1459742755390688</v>
+        <v>0.4307963873103056</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7411361111464381</v>
+        <v>0.4538760035758038</v>
       </c>
     </row>
     <row r="4">
@@ -1704,10 +1648,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.500594188921972</v>
+        <v>-1.490577316197212</v>
       </c>
       <c r="C4" t="n">
-        <v>1.859480871798128e-05</v>
+        <v>0.0001524918181554994</v>
       </c>
     </row>
     <row r="5">
@@ -1717,10 +1661,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9008559799162976</v>
+        <v>-0.5819612283447098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01437244926091963</v>
+        <v>0.1724876309046519</v>
       </c>
     </row>
     <row r="6">
@@ -1730,10 +1674,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7909580344304926</v>
+        <v>-1.030753677896111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1165460501927037</v>
+        <v>0.05311917218439435</v>
       </c>
     </row>
     <row r="7">
@@ -1743,10 +1687,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1385546975349978</v>
+        <v>-0.307943728788376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4805753309081433</v>
+        <v>0.2080446235973259</v>
       </c>
     </row>
     <row r="8">
@@ -1756,10 +1700,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003599744968859048</v>
+        <v>0.0006331987339115549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003367551670387302</v>
+        <v>4.303154654476802e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1769,10 +1713,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008372478674609928</v>
+        <v>0.005068583462839813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3552001677241891</v>
+        <v>0.6162508518124583</v>
       </c>
     </row>
     <row r="10">
@@ -1782,10 +1726,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.118748380389522</v>
+        <v>-0.3072973234567221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.616789628441077</v>
+        <v>0.2201897518297825</v>
       </c>
     </row>
     <row r="11">
@@ -1795,10 +1739,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.185135785093668</v>
+        <v>1.529185421466845</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001689715307636776</v>
+        <v>0.0002686005887216533</v>
       </c>
     </row>
     <row r="12">
@@ -1808,10 +1752,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4353515284712159</v>
+        <v>0.6801703061044341</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3524038346261283</v>
+        <v>0.1950977781202057</v>
       </c>
     </row>
     <row r="13">
@@ -1821,10 +1765,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.212605296057803e-05</v>
+        <v>-0.0004926974367005511</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999999755198323</v>
+        <v>0.999999482274057</v>
       </c>
     </row>
     <row r="14">
@@ -1834,10 +1778,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.05947918630481e-07</v>
+        <v>9.384870340996849e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999999913599957</v>
+        <v>0.9999991868081779</v>
       </c>
     </row>
     <row r="15">
@@ -1847,9 +1791,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4646838135813711</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>-0.4829636961762788</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9999993564168073</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1858,10 +1804,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08410516704117479</v>
+        <v>0.3239558560234763</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9999998960048693</v>
+        <v>0.9999991515734882</v>
       </c>
     </row>
     <row r="17">
@@ -1871,10 +1817,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.354400137286713</v>
+        <v>-2.291462466306595</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999995482167361</v>
+        <v>0.9999995238459736</v>
       </c>
     </row>
     <row r="18">
@@ -1884,23 +1830,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.06861179394242201</v>
+        <v>-0.08867579556181598</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999993984871859</v>
+        <v>0.9999968298615589</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004796497985413157</v>
+        <v>-0.02473829022424497</v>
       </c>
       <c r="C19" t="n">
-        <v>0.999999354604188</v>
+        <v>0.9999991885018359</v>
       </c>
     </row>
     <row r="20">
@@ -1910,10 +1856,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.214843300223432</v>
+        <v>2.0605215434134</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9999999235727783</v>
+        <v>0.9999997514211573</v>
       </c>
     </row>
     <row r="21">
@@ -1923,23 +1869,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.235358285734186</v>
+        <v>2.676019005009805</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9999998922237219</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.48046397560007</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9999998056797718</v>
+        <v>0.9999997448265058</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +1886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1985,10 +1918,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.408822547185684</v>
+        <v>3.821389189767419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999991578575327</v>
+        <v>0.9999985416580102</v>
       </c>
     </row>
     <row r="3">
@@ -1998,10 +1931,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2689434358395291</v>
+        <v>0.5250228579480203</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5555303762189635</v>
+        <v>0.3274213803631142</v>
       </c>
     </row>
     <row r="4">
@@ -2011,10 +1944,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.426976717825279</v>
+        <v>-1.599856152732271</v>
       </c>
       <c r="C4" t="n">
-        <v>6.391557333188858e-05</v>
+        <v>2.504828684637917e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2024,10 +1957,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8154700782474137</v>
+        <v>-0.6487905733867977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02891366148719095</v>
+        <v>0.1154943295852581</v>
       </c>
     </row>
     <row r="6">
@@ -2037,10 +1970,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.069998359266428</v>
+        <v>-0.8014797719727035</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0289994124353364</v>
+        <v>0.1768061119072072</v>
       </c>
     </row>
     <row r="7">
@@ -2050,10 +1983,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04987181756390266</v>
+        <v>-0.3381632818251353</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8107771160990703</v>
+        <v>0.1395921813328744</v>
       </c>
     </row>
     <row r="8">
@@ -2063,10 +1996,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003661813108792679</v>
+        <v>0.0005516482619506975</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001575450883054292</v>
+        <v>3.649766493375448e-06</v>
       </c>
     </row>
     <row r="9">
@@ -2076,10 +2009,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007835287137486853</v>
+        <v>0.007272555315874055</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3847884671055658</v>
+        <v>0.4661081261101094</v>
       </c>
     </row>
     <row r="10">
@@ -2089,10 +2022,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1718120340932461</v>
+        <v>-0.2887156952855379</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4618622180594514</v>
+        <v>0.2530424385486094</v>
       </c>
     </row>
     <row r="11">
@@ -2102,10 +2035,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.235321273856137</v>
+        <v>1.338034627723313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001181048856271813</v>
+        <v>0.001427863201318788</v>
       </c>
     </row>
     <row r="12">
@@ -2115,10 +2048,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5482397320746133</v>
+        <v>0.3771257259648507</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2494222769438065</v>
+        <v>0.4628728917637948</v>
       </c>
     </row>
     <row r="13">
@@ -2128,7 +2061,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.495699460067682e-05</v>
+        <v>-9.775220535704278e-05</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -2139,7 +2072,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.306440514772274e-07</v>
+        <v>2.507635557125757e-07</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -2150,7 +2083,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4052294648449744</v>
+        <v>-0.3121403541441453</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -2161,7 +2094,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.135650931069492</v>
+        <v>0.2737608774165487</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
@@ -2172,10 +2105,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.518716298408382</v>
+        <v>-2.702747073729784</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999976718179057</v>
+        <v>0.9999967990153867</v>
       </c>
     </row>
     <row r="18">
@@ -2185,20 +2118,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07302968376365492</v>
+        <v>-0.0735786981970101</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.001661244509829079</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>-0.02271674766345848</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9999992731532202</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2207,7 +2142,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.122044793628191</v>
+        <v>2.006437586554612</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
@@ -2218,20 +2153,9 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.87169929764213</v>
+        <v>2.772294642357273</v>
       </c>
       <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.435172654791189</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2244,7 +2168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2276,7 +2200,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.285636498701559</v>
+        <v>4.216784007821232</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2287,10 +2211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1171038914408063</v>
+        <v>0.484651060123047</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8053752173325603</v>
+        <v>0.3758042259611167</v>
       </c>
     </row>
     <row r="4">
@@ -2300,10 +2224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.310460201332544</v>
+        <v>-1.662074057021146</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003108805465157733</v>
+        <v>1.046769234188354e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2313,10 +2237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5405778423365656</v>
+        <v>-0.7621951188541053</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1563772237647413</v>
+        <v>0.06063208411409446</v>
       </c>
     </row>
     <row r="6">
@@ -2326,10 +2250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.022664284111035</v>
+        <v>-0.7297287014944986</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0390742847849455</v>
+        <v>0.1716931823214265</v>
       </c>
     </row>
     <row r="7">
@@ -2339,10 +2263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0170651135089226</v>
+        <v>-0.4576936105073749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9368448910872758</v>
+        <v>0.04292654557183229</v>
       </c>
     </row>
     <row r="8">
@@ -2352,10 +2276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003878075357003735</v>
+        <v>0.0005709270477139133</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001859995426491884</v>
+        <v>1.962491149658751e-06</v>
       </c>
     </row>
     <row r="9">
@@ -2365,10 +2289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01387486479270425</v>
+        <v>0.001536363831825245</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1305303618372737</v>
+        <v>0.8798136117006176</v>
       </c>
     </row>
     <row r="10">
@@ -2378,10 +2302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1546387269632785</v>
+        <v>-0.2070717737486029</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5091378416619488</v>
+        <v>0.4126951964376968</v>
       </c>
     </row>
     <row r="11">
@@ -2391,10 +2315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9606710266627149</v>
+        <v>1.642728033518945</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01195116638060791</v>
+        <v>2.964184515992446e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2404,10 +2328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1941876438010008</v>
+        <v>0.8247086291385081</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6867739242600097</v>
+        <v>0.09563388409281372</v>
       </c>
     </row>
     <row r="13">
@@ -2417,11 +2341,9 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001912325114348083</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9999996766031075</v>
-      </c>
+        <v>-0.0003785968916631202</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2430,11 +2352,9 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.482727516959001e-07</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.999999855813872</v>
-      </c>
+        <v>6.008534931656795e-07</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2443,11 +2363,9 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4856252823332627</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9999991752168946</v>
-      </c>
+        <v>-0.4456946288711171</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2456,11 +2374,9 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1486426255041107</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9999995094921843</v>
-      </c>
+        <v>0.3245640359205335</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2469,11 +2385,9 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.699342628927071</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9999988947754866</v>
-      </c>
+        <v>-2.401735719723264</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2482,20 +2396,18 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07539434158198698</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9999990855501329</v>
-      </c>
+        <v>-0.08126581366430922</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002094887074564713</v>
+        <v>-0.02038219350075527</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
@@ -2506,11 +2418,9 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.123765838921571</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9999998996636457</v>
-      </c>
+        <v>2.062041029338753</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2519,24 +2429,9 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.928079648635797</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9999997594816578</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.406402574614333</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9999998427852258</v>
-      </c>
+        <v>2.715956425761173</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2549,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2581,11 +2476,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.274763118860167</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9999996019206888</v>
-      </c>
+        <v>4.507505187247576</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2594,10 +2487,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2046431502894395</v>
+        <v>0.5180814717031081</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6459579941897533</v>
+        <v>0.3292934649772841</v>
       </c>
     </row>
     <row r="4">
@@ -2607,10 +2500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.434301854303577</v>
+        <v>-1.633230193218745</v>
       </c>
       <c r="C4" t="n">
-        <v>3.402245926147167e-05</v>
+        <v>1.80885486044537e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2620,10 +2513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5451019857722171</v>
+        <v>-0.773411381983095</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1424257904820201</v>
+        <v>0.06186514944380977</v>
       </c>
     </row>
     <row r="6">
@@ -2633,10 +2526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.116029224336967</v>
+        <v>-0.756878418762054</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0323534540925111</v>
+        <v>0.1685777673289838</v>
       </c>
     </row>
     <row r="7">
@@ -2646,10 +2539,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1410490992592197</v>
+        <v>-0.3716275509627794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4662310604919506</v>
+        <v>0.1090862021023004</v>
       </c>
     </row>
     <row r="8">
@@ -2659,10 +2552,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003813936240578558</v>
+        <v>0.0004974706635019178</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001365118064753983</v>
+        <v>3.934559014124657e-05</v>
       </c>
     </row>
     <row r="9">
@@ -2672,10 +2565,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007999102053149802</v>
+        <v>0.009333315924079143</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3884767905438967</v>
+        <v>0.356825223530147</v>
       </c>
     </row>
     <row r="10">
@@ -2685,10 +2578,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.06174702147950447</v>
+        <v>-0.2971569064671913</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7962348503710628</v>
+        <v>0.2377832304578349</v>
       </c>
     </row>
     <row r="11">
@@ -2698,10 +2591,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.334983908431108</v>
+        <v>1.642823356791662</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009480669366223044</v>
+        <v>4.610666470662288e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2711,10 +2604,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.670061099067407</v>
+        <v>0.4753209018652256</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1731650009226117</v>
+        <v>0.3513973145120508</v>
       </c>
     </row>
     <row r="13">
@@ -2724,10 +2617,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001256026750869994</v>
+        <v>-0.0003595558589708413</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999998706019853</v>
+        <v>0.9999996863834074</v>
       </c>
     </row>
     <row r="14">
@@ -2737,10 +2630,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.090224644641863e-08</v>
+        <v>5.650299234151571e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999999906740389</v>
+        <v>0.9999995927601781</v>
       </c>
     </row>
     <row r="15">
@@ -2750,10 +2643,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4651515072214585</v>
+        <v>-0.3481283423707033</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999992803308744</v>
+        <v>0.999999471351565</v>
       </c>
     </row>
     <row r="16">
@@ -2763,10 +2656,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1327341399789218</v>
+        <v>0.3019709027588068</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9999995938480688</v>
+        <v>0.9999993883198669</v>
       </c>
     </row>
     <row r="17">
@@ -2776,10 +2669,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.630963536317205</v>
+        <v>-2.573113290206273</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999988658843177</v>
+        <v>0.9999993335538658</v>
       </c>
     </row>
     <row r="18">
@@ -2789,22 +2682,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07330363125308723</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>-0.08324991005011319</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9999975441197787</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000462499517471848</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9999999863379974</v>
-      </c>
+        <v>-0.02507518178656119</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2813,10 +2706,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.102665205509399</v>
+        <v>2.208706689589433</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9999998415243546</v>
+        <v>0.9999997666252817</v>
       </c>
     </row>
     <row r="21">
@@ -2826,22 +2719,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.887230216027714</v>
+        <v>2.918469226286587</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.383868371666556</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>0.9999997591345596</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2854,7 +2736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2886,11 +2768,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.096749301308831</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9999992553384814</v>
-      </c>
+        <v>3.863655428042892</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2899,10 +2779,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3693006897451371</v>
+        <v>0.4016868535630725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4165831214218516</v>
+        <v>0.4492438948743482</v>
       </c>
     </row>
     <row r="4">
@@ -2912,10 +2792,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.264500591590133</v>
+        <v>-1.442447207690171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003392142259839228</v>
+        <v>0.0001442355990940144</v>
       </c>
     </row>
     <row r="5">
@@ -2925,10 +2805,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5647650594411564</v>
+        <v>-0.50678158014893</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1301869928291142</v>
+        <v>0.2201186188220864</v>
       </c>
     </row>
     <row r="6">
@@ -2938,10 +2818,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.05886710756961929</v>
+        <v>-0.7970152144652456</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9170444268279533</v>
+        <v>0.1222377621968936</v>
       </c>
     </row>
     <row r="7">
@@ -2951,10 +2831,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1104385177863758</v>
+        <v>-0.3573525018224194</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5839125606137885</v>
+        <v>0.1141272772348517</v>
       </c>
     </row>
     <row r="8">
@@ -2964,10 +2844,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004669789431308136</v>
+        <v>0.0006133033878960324</v>
       </c>
       <c r="C8" t="n">
-        <v>5.999356431826613e-06</v>
+        <v>6.62929920579916e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2977,10 +2857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00404227971301544</v>
+        <v>0.009461717624037648</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6652632638115199</v>
+        <v>0.3519574567091024</v>
       </c>
     </row>
     <row r="10">
@@ -2990,10 +2870,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01217013406117923</v>
+        <v>-0.3819364956029062</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9589306410535452</v>
+        <v>0.1347254918778092</v>
       </c>
     </row>
     <row r="11">
@@ -3003,10 +2883,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.244554352476451</v>
+        <v>1.546382210675561</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001197254582400046</v>
+        <v>0.0001695711275130854</v>
       </c>
     </row>
     <row r="12">
@@ -3016,10 +2896,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7377789829369372</v>
+        <v>0.4785203838242547</v>
       </c>
       <c r="C12" t="n">
-        <v>0.127711177404292</v>
+        <v>0.3480236956600775</v>
       </c>
     </row>
     <row r="13">
@@ -3029,10 +2909,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001062573428748715</v>
+        <v>-0.0003996345067753764</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999998816470368</v>
+        <v>0.9999990589330325</v>
       </c>
     </row>
     <row r="14">
@@ -3042,11 +2922,9 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.719847443891981e-08</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9999999846098361</v>
-      </c>
+        <v>6.130930587473931e-07</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3055,10 +2933,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4425009488105409</v>
+        <v>-0.4382413137088771</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999990649885721</v>
+        <v>0.9999992116376716</v>
       </c>
     </row>
     <row r="16">
@@ -3068,11 +2946,9 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1517763833091386</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9999991547694825</v>
-      </c>
+        <v>0.3469051689702932</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3081,9 +2957,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.772138133509718</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>-1.827986332183624</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9999994863103092</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3092,18 +2970,18 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07308938922274477</v>
+        <v>-0.07565382597137009</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0002798379392396486</v>
+        <v>-0.02284010987815462</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
@@ -3114,11 +2992,9 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.079060806540285</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9999998976802369</v>
-      </c>
+        <v>1.794062730455194</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3127,20 +3003,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.911903662238835</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.332608323979598</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>2.270815504488648</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9999996187622116</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
